--- a/DataRepo/data/tests/submission_v3/study_with_autofill_seeds.xlsx
+++ b/DataRepo/data/tests/submission_v3/study_with_autofill_seeds.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-local/TRACEBASE/tracebase/DataRepo/data/tests/submission_v3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60615F53-38E1-344D-A7CA-BC2FA7FB7CDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D09944A4-5A2E-9C48-8265-07FB68C49C1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="31940" windowHeight="16920" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="31940" windowHeight="16920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study" sheetId="1" r:id="rId1"/>
@@ -36,39 +36,50 @@
     <author>TraceBase Dev Team</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Courier"/>
-            <family val="2"/>
-          </rPr>
-          <t>A 2 to 6 character unique readable alphanumeric code for the study, to be used
-as a prefix for animal names, sample names, etc if necessary, to make them
-unique.
-Must be unique.
-Optional.</t>
+            <color rgb="FF000000"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">A succinct name for the study, which is a collection of one or more series of
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">animals and their associated data.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t>Must be unique.</t>
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Courier"/>
-            <family val="2"/>
-          </rPr>
-          <t>A succinct name for the study, which is a collection of one or more series of
-animals and their associated data.
-Must be unique.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -1570,10 +1581,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="523">
-  <si>
-    <t>Study ID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="522">
   <si>
     <t>Name</t>
   </si>
@@ -3557,26 +3565,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -3599,322 +3603,322 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B10" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B13" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B14" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B15" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B16" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B17" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B18" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B19" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B20" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B21" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B22" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B23" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B24" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B25" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B26" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B27" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B28" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B29" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B30" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B31" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B32" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B33" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B34" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B35" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B36" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B37" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B38" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B39" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B40" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -3939,632 +3943,632 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>338</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B7" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C7" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D7" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B8" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C8" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D8" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C9" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D9" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B10" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D10" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B11" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C11" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D11" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B12" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C12" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D12" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B13" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C13" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D13" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B14" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C14" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D14" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B15" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C15" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D15" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B16" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C16" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D16" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B17" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C17" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D17" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B18" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C18" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D18" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B19" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C19" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D19" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B20" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C20" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D20" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B21" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C21" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D21" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B22" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C22" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D22" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B23" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C23" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D23" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B24" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C24" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D24" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B25" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C25" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D25" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B26" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C26" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D26" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B27" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C27" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D27" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B28" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C28" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D28" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B29" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C29" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D29" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B30" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C30" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D30" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B31" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C31" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D31" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B32" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C32" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D32" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B33" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C33" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D33" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B34" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C34" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D34" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B35" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C35" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D35" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B36" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C36" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D36" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B37" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C37" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D37" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B38" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C38" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D38" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B39" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C39" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D39" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B40" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C40" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D40" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B41" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C41" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D41" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B42" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C42" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D42" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B43" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C43" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D43" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B44" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C44" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D44" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B45" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C45" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D45" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
   </sheetData>
@@ -4577,7 +4581,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB81F41B-CDD9-FC40-B806-528394A955A5}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
@@ -4589,84 +4593,84 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>490</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>491</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>509</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>510</v>
       </c>
       <c r="C2" s="6">
         <v>25</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>512</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>513</v>
       </c>
       <c r="C3" s="6">
         <v>25</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>515</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>516</v>
       </c>
       <c r="C4" s="6">
         <v>25</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>518</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>519</v>
       </c>
       <c r="C5" s="6">
         <v>25</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="6" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
   </sheetData>
@@ -4697,48 +4701,48 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="F3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="J3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="K3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
   </sheetData>
@@ -4765,393 +4769,393 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -5176,24 +5180,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" t="s">
         <v>96</v>
       </c>
-      <c r="B2" t="s">
-        <v>97</v>
-      </c>
       <c r="C2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
   </sheetData>
@@ -5219,870 +5223,870 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D33" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D36" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D37" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D38" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D39" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D40" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D41" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D42" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D43" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D44" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D45" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B46" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D46" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B47" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D47" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B48" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D48" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B49" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D49" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B50" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D50" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B51" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D51" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B52" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D52" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B53" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D53" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B54" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D54" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B55" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D55" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B56" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D56" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B57" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D57" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B58" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D58" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B59" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D59" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B60" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D60" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B61" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D61" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B62" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D62" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B63" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D63" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B64" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D64" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B65" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D65" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B66" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D66" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B67" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D67" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B68" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D68" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B69" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D69" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B70" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D70" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B71" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D71" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B72" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D72" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B73" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D73" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B74" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D74" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B75" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D75" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F75" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B76" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D76" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F76" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" t="s">
+        <v>105</v>
+      </c>
+      <c r="B77" t="s">
+        <v>105</v>
+      </c>
+      <c r="D77" t="s">
+        <v>95</v>
+      </c>
+      <c r="F77" t="s">
         <v>106</v>
-      </c>
-      <c r="B77" t="s">
-        <v>106</v>
-      </c>
-      <c r="D77" t="s">
-        <v>96</v>
-      </c>
-      <c r="F77" t="s">
-        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -6109,39 +6113,39 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
+        <v>496</v>
+      </c>
+      <c r="B3" t="s">
         <v>497</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>498</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>499</v>
       </c>
-      <c r="D3" t="s">
-        <v>500</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
   </sheetData>
@@ -6167,19 +6171,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -6187,13 +6191,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D2">
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -6201,13 +6205,13 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D3">
         <v>23.2</v>
       </c>
       <c r="E3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -6215,13 +6219,13 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D4">
         <v>8.8000000000000007</v>
       </c>
       <c r="E4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6229,13 +6233,13 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D5">
         <v>300</v>
       </c>
       <c r="E5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -6243,13 +6247,13 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D6">
         <v>200</v>
       </c>
       <c r="E6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -6257,13 +6261,13 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D7">
         <v>553</v>
       </c>
       <c r="E7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -6271,13 +6275,13 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D8">
         <v>200</v>
       </c>
       <c r="E8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -6285,13 +6289,13 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D9">
         <v>180</v>
       </c>
       <c r="E9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -6299,13 +6303,13 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D10">
         <v>800</v>
       </c>
       <c r="E10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -6313,13 +6317,13 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D11">
         <v>148.87700000000001</v>
       </c>
       <c r="E11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -6327,13 +6331,13 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D12">
         <v>112.5</v>
       </c>
       <c r="E12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -6341,13 +6345,13 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D13">
         <v>112.5</v>
       </c>
       <c r="E13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -6355,13 +6359,13 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D14">
         <v>400</v>
       </c>
       <c r="E14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -6369,13 +6373,13 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D15">
         <v>490</v>
       </c>
       <c r="E15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -6383,13 +6387,13 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D16">
         <v>390</v>
       </c>
       <c r="E16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -6397,13 +6401,13 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D17">
         <v>100</v>
       </c>
       <c r="E17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -6411,13 +6415,13 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -6425,13 +6429,13 @@
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D19">
         <v>200</v>
       </c>
       <c r="E19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -6439,13 +6443,13 @@
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D20">
         <v>300</v>
       </c>
       <c r="E20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -6453,13 +6457,13 @@
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D21">
         <v>40</v>
       </c>
       <c r="E21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -6467,13 +6471,13 @@
         <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D22">
         <v>60</v>
       </c>
       <c r="E22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -6481,13 +6485,13 @@
         <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D23">
         <v>4</v>
       </c>
       <c r="E23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -6495,13 +6499,13 @@
         <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D24">
         <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -6509,13 +6513,13 @@
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D25">
         <v>4</v>
       </c>
       <c r="E25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -6523,13 +6527,13 @@
         <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -6537,13 +6541,13 @@
         <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D27">
         <v>434.63099999999997</v>
       </c>
       <c r="E27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -6551,13 +6555,13 @@
         <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D28">
         <v>50</v>
       </c>
       <c r="E28" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -6565,13 +6569,13 @@
         <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D29">
         <v>200</v>
       </c>
       <c r="E29" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -6579,13 +6583,13 @@
         <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D30">
         <v>400</v>
       </c>
       <c r="E30" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -6593,13 +6597,13 @@
         <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D31">
         <v>40</v>
       </c>
       <c r="E31" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -6607,13 +6611,13 @@
         <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D32">
         <v>8</v>
       </c>
       <c r="E32" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -6621,13 +6625,13 @@
         <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D33">
         <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -6635,13 +6639,13 @@
         <v>32</v>
       </c>
       <c r="C34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D34">
         <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -6649,13 +6653,13 @@
         <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D35">
         <v>20</v>
       </c>
       <c r="E35" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -6663,13 +6667,13 @@
         <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D36">
         <v>125</v>
       </c>
       <c r="E36" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -6677,13 +6681,13 @@
         <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D37">
         <v>145</v>
       </c>
       <c r="E37" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -6691,13 +6695,13 @@
         <v>36</v>
       </c>
       <c r="C38" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D38">
         <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -6705,13 +6709,13 @@
         <v>37</v>
       </c>
       <c r="C39" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D39">
         <v>101</v>
       </c>
       <c r="E39" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -6719,13 +6723,13 @@
         <v>37</v>
       </c>
       <c r="C40" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D40">
         <v>210</v>
       </c>
       <c r="E40" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -6733,13 +6737,13 @@
         <v>38</v>
       </c>
       <c r="C41" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D41">
         <v>210</v>
       </c>
       <c r="E41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -6747,13 +6751,13 @@
         <v>39</v>
       </c>
       <c r="C42" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D42">
         <v>101</v>
       </c>
       <c r="E42" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -6761,13 +6765,13 @@
         <v>40</v>
       </c>
       <c r="C43" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D43">
         <v>90</v>
       </c>
       <c r="E43" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -6775,13 +6779,13 @@
         <v>41</v>
       </c>
       <c r="C44" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D44">
         <v>25</v>
       </c>
       <c r="E44" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -6789,13 +6793,13 @@
         <v>42</v>
       </c>
       <c r="C45" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D45">
         <v>2.2200000000000002</v>
       </c>
       <c r="E45" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -6803,13 +6807,13 @@
         <v>43</v>
       </c>
       <c r="C46" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D46">
         <v>2.0299999999999998</v>
       </c>
       <c r="E46" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -6817,13 +6821,13 @@
         <v>44</v>
       </c>
       <c r="C47" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D47">
         <v>2</v>
       </c>
       <c r="E47" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -6831,13 +6835,13 @@
         <v>45</v>
       </c>
       <c r="C48" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D48">
         <v>100</v>
       </c>
       <c r="E48" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -6845,13 +6849,13 @@
         <v>45</v>
       </c>
       <c r="C49" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D49">
         <v>3.5</v>
       </c>
       <c r="E49" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -6859,13 +6863,13 @@
         <v>45</v>
       </c>
       <c r="C50" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D50">
         <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -6873,13 +6877,13 @@
         <v>45</v>
       </c>
       <c r="C51" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D51">
         <v>20</v>
       </c>
       <c r="E51" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -6887,13 +6891,13 @@
         <v>45</v>
       </c>
       <c r="C52" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D52">
         <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -6901,13 +6905,13 @@
         <v>46</v>
       </c>
       <c r="C53" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D53">
         <v>50</v>
       </c>
       <c r="E53" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -6915,13 +6919,13 @@
         <v>47</v>
       </c>
       <c r="C54" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D54">
         <v>2.0833333330000001</v>
       </c>
       <c r="E54" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -6929,16 +6933,16 @@
         <v>48</v>
       </c>
       <c r="B55" t="s">
+        <v>500</v>
+      </c>
+      <c r="C55" t="s">
         <v>501</v>
-      </c>
-      <c r="C55" t="s">
-        <v>502</v>
       </c>
       <c r="D55">
         <v>22</v>
       </c>
       <c r="E55" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
   </sheetData>
@@ -6966,25 +6970,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>193</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -6992,19 +6996,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C2">
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E2">
         <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -7012,19 +7016,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C3">
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E3">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -7032,19 +7036,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C4">
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E4">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -7052,19 +7056,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C5">
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E5">
         <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -7072,19 +7076,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C6">
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E6">
         <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -7092,19 +7096,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C7">
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E7">
         <v>3</v>
       </c>
       <c r="G7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7112,19 +7116,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C8">
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -7132,19 +7136,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C9">
         <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E9">
         <v>3</v>
       </c>
       <c r="G9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -7152,19 +7156,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C10">
         <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E10">
         <v>6</v>
       </c>
       <c r="G10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -7172,19 +7176,19 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C11">
         <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E11">
         <v>4</v>
       </c>
       <c r="G11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -7192,19 +7196,19 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C12">
         <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E12">
         <v>6</v>
       </c>
       <c r="G12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -7212,19 +7216,19 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C13">
         <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E13">
         <v>4</v>
       </c>
       <c r="G13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -7232,19 +7236,19 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C14">
         <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -7252,22 +7256,22 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E15">
         <v>4</v>
       </c>
       <c r="F15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -7275,19 +7279,19 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C16">
         <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E16">
         <v>6</v>
       </c>
       <c r="G16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -7295,22 +7299,22 @@
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C17">
         <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E17">
         <v>2</v>
       </c>
       <c r="F17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -7318,19 +7322,19 @@
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C18">
         <v>13</v>
       </c>
       <c r="D18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E18">
         <v>6</v>
       </c>
       <c r="G18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -7338,22 +7342,22 @@
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C19">
         <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E19">
         <v>2</v>
       </c>
       <c r="F19" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -7361,19 +7365,19 @@
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C20">
         <v>13</v>
       </c>
       <c r="D20" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E20">
         <v>5</v>
       </c>
       <c r="G20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -7381,19 +7385,19 @@
         <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C21">
         <v>15</v>
       </c>
       <c r="D21" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E21">
         <v>2</v>
       </c>
       <c r="G21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -7401,19 +7405,19 @@
         <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C22">
         <v>13</v>
       </c>
       <c r="D22" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E22">
         <v>5</v>
       </c>
       <c r="G22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -7421,19 +7425,19 @@
         <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C23">
         <v>13</v>
       </c>
       <c r="D23" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E23">
         <v>2</v>
       </c>
       <c r="G23" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -7441,19 +7445,19 @@
         <v>18</v>
       </c>
       <c r="B24" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C24">
         <v>15</v>
       </c>
       <c r="D24" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="G24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -7461,19 +7465,19 @@
         <v>19</v>
       </c>
       <c r="B25" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C25">
         <v>13</v>
       </c>
       <c r="D25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E25">
         <v>2</v>
       </c>
       <c r="G25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -7481,19 +7485,19 @@
         <v>20</v>
       </c>
       <c r="B26" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C26">
         <v>13</v>
       </c>
       <c r="D26" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E26">
         <v>6</v>
       </c>
       <c r="G26" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -7501,19 +7505,19 @@
         <v>20</v>
       </c>
       <c r="B27" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C27">
         <v>15</v>
       </c>
       <c r="D27" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E27">
         <v>1</v>
       </c>
       <c r="G27" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -7521,19 +7525,19 @@
         <v>21</v>
       </c>
       <c r="B28" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C28">
         <v>13</v>
       </c>
       <c r="D28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E28">
         <v>6</v>
       </c>
       <c r="G28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -7541,19 +7545,19 @@
         <v>22</v>
       </c>
       <c r="B29" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C29">
         <v>13</v>
       </c>
       <c r="D29" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E29">
         <v>3</v>
       </c>
       <c r="G29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -7561,19 +7565,19 @@
         <v>23</v>
       </c>
       <c r="B30" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C30">
         <v>13</v>
       </c>
       <c r="D30" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E30">
         <v>6</v>
       </c>
       <c r="G30" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -7581,19 +7585,19 @@
         <v>23</v>
       </c>
       <c r="B31" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C31">
         <v>15</v>
       </c>
       <c r="D31" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E31">
         <v>2</v>
       </c>
       <c r="G31" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -7601,19 +7605,19 @@
         <v>24</v>
       </c>
       <c r="B32" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C32">
         <v>13</v>
       </c>
       <c r="D32" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E32">
         <v>6</v>
       </c>
       <c r="G32" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -7621,19 +7625,19 @@
         <v>25</v>
       </c>
       <c r="B33" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C33">
         <v>13</v>
       </c>
       <c r="D33" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E33">
         <v>5</v>
       </c>
       <c r="G33" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -7641,19 +7645,19 @@
         <v>25</v>
       </c>
       <c r="B34" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C34">
         <v>15</v>
       </c>
       <c r="D34" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E34">
         <v>1</v>
       </c>
       <c r="G34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -7661,19 +7665,19 @@
         <v>26</v>
       </c>
       <c r="B35" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C35">
         <v>13</v>
       </c>
       <c r="D35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E35">
         <v>5</v>
       </c>
       <c r="G35" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -7681,19 +7685,19 @@
         <v>27</v>
       </c>
       <c r="B36" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C36">
         <v>13</v>
       </c>
       <c r="D36" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E36">
         <v>9</v>
       </c>
       <c r="G36" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -7701,19 +7705,19 @@
         <v>27</v>
       </c>
       <c r="B37" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C37">
         <v>15</v>
       </c>
       <c r="D37" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E37">
         <v>1</v>
       </c>
       <c r="G37" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -7721,19 +7725,19 @@
         <v>28</v>
       </c>
       <c r="B38" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C38">
         <v>13</v>
       </c>
       <c r="D38" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E38">
         <v>9</v>
       </c>
       <c r="G38" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -7741,19 +7745,19 @@
         <v>29</v>
       </c>
       <c r="B39" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C39">
         <v>13</v>
       </c>
       <c r="D39" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E39">
         <v>5</v>
       </c>
       <c r="G39" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -7761,19 +7765,19 @@
         <v>29</v>
       </c>
       <c r="B40" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C40">
         <v>15</v>
       </c>
       <c r="D40" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E40">
         <v>1</v>
       </c>
       <c r="G40" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -7781,19 +7785,19 @@
         <v>30</v>
       </c>
       <c r="B41" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C41">
         <v>13</v>
       </c>
       <c r="D41" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E41">
         <v>5</v>
       </c>
       <c r="G41" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -7801,19 +7805,19 @@
         <v>31</v>
       </c>
       <c r="B42" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C42">
         <v>13</v>
       </c>
       <c r="D42" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E42">
         <v>3</v>
       </c>
       <c r="G42" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -7821,19 +7825,19 @@
         <v>31</v>
       </c>
       <c r="B43" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C43">
         <v>15</v>
       </c>
       <c r="D43" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E43">
         <v>1</v>
       </c>
       <c r="G43" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -7841,19 +7845,19 @@
         <v>32</v>
       </c>
       <c r="B44" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C44">
         <v>13</v>
       </c>
       <c r="D44" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E44">
         <v>4</v>
       </c>
       <c r="G44" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -7861,19 +7865,19 @@
         <v>32</v>
       </c>
       <c r="B45" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C45">
         <v>15</v>
       </c>
       <c r="D45" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E45">
         <v>1</v>
       </c>
       <c r="G45" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -7881,19 +7885,19 @@
         <v>33</v>
       </c>
       <c r="B46" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C46">
         <v>13</v>
       </c>
       <c r="D46" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E46">
         <v>4</v>
       </c>
       <c r="G46" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -7901,19 +7905,19 @@
         <v>34</v>
       </c>
       <c r="B47" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C47">
         <v>13</v>
       </c>
       <c r="D47" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E47">
         <v>11</v>
       </c>
       <c r="G47" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -7921,19 +7925,19 @@
         <v>35</v>
       </c>
       <c r="B48" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C48">
         <v>13</v>
       </c>
       <c r="D48" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E48">
         <v>5</v>
       </c>
       <c r="G48" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -7941,19 +7945,19 @@
         <v>35</v>
       </c>
       <c r="B49" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C49">
         <v>15</v>
       </c>
       <c r="D49" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E49">
         <v>1</v>
       </c>
       <c r="G49" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -7961,19 +7965,19 @@
         <v>36</v>
       </c>
       <c r="B50" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C50">
         <v>13</v>
       </c>
       <c r="D50" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E50">
         <v>5</v>
       </c>
       <c r="G50" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -7981,19 +7985,19 @@
         <v>37</v>
       </c>
       <c r="B51" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C51">
         <v>13</v>
       </c>
       <c r="D51" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E51">
         <v>9</v>
       </c>
       <c r="G51" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
   </sheetData>
@@ -8016,146 +8020,146 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>236</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B15" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B17" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>

--- a/DataRepo/data/tests/submission_v3/study_with_autofill_seeds.xlsx
+++ b/DataRepo/data/tests/submission_v3/study_with_autofill_seeds.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-local/TRACEBASE/tracebase/DataRepo/data/tests/submission_v3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D09944A4-5A2E-9C48-8265-07FB68C49C1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A24DD0-D8EC-6D47-94AF-4B5884A78902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="31940" windowHeight="16920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="31940" windowHeight="16920" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Samples" sheetId="3" r:id="rId3"/>
     <sheet name="Peak Annotation Files" sheetId="4" r:id="rId4"/>
     <sheet name="Peak Annotation Details" sheetId="5" r:id="rId5"/>
-    <sheet name="Sequences" sheetId="6" r:id="rId6"/>
+    <sheet name="MS Runs" sheetId="6" r:id="rId6"/>
     <sheet name="Infusates" sheetId="7" r:id="rId7"/>
     <sheet name="Tracers" sheetId="8" r:id="rId8"/>
     <sheet name="Treatments" sheetId="9" r:id="rId9"/>
@@ -959,22 +959,151 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Courier"/>
-            <family val="2"/>
-          </rPr>
-          <t>The MSRun Sequence associated with the Sample Name, Sample Data Header, and/or
-mzXML File Name on this row.
-Use the dropdowns to select values in this column.  If the dropdowns are empty
-or the sequence is missing, add a row for it to the Sequences sheet.
-Comma-delimited string combining the values from these columns from the
-Sequences sheet in this order:
-- Operator
-- LC Protocol Name
-- Instrument
-- Date
-Select a 'Sequence Name' from the dropdowns in this column.  The dropdowns are
-populated by the 'Sequence Name' column in the Sequences sheet.</t>
+            <color rgb="FF000000"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">The MSRun Sequence associated with the Sample Name, Sample Data Header, and/or
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">mzXML File Name on this row.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Use the dropdowns to select values in this column.  If the dropdowns are empty
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">or the sequence is missing, add a row for it to the Sequences sheet.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Comma-delimited string combining the values from these columns from the
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Sequences sheet in this order:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- Operator
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- LC Protocol Name
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- Instrument
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- Date
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Select a 'Sequence Name' from the dropdowns in this column.  The dropdowns are
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t>populated by the 'Sequence Name' column in the Sequences sheet.</t>
         </r>
       </text>
     </comment>
@@ -1865,9 +1994,6 @@
     <t>File Format</t>
   </si>
   <si>
-    <t>Default Sequence Name</t>
-  </si>
-  <si>
     <t>col005g_3hb tissues_corrected.xlsx</t>
   </si>
   <si>
@@ -1886,9 +2012,6 @@
     <t>Peak Annotation File Name</t>
   </si>
   <si>
-    <t>Sequence Name</t>
-  </si>
-  <si>
     <t>Skip</t>
   </si>
   <si>
@@ -2147,9 +2270,6 @@
     <t>Tracer Row Group</t>
   </si>
   <si>
-    <t>Compound Name</t>
-  </si>
-  <si>
     <t>Mass Number</t>
   </si>
   <si>
@@ -3147,6 +3267,15 @@
   </si>
   <si>
     <t>Liquid chromatography methodology was not provided or is unavailable.</t>
+  </si>
+  <si>
+    <t>Default MS Run</t>
+  </si>
+  <si>
+    <t>MS Run</t>
+  </si>
+  <si>
+    <t>MS Run Name</t>
   </si>
 </sst>
 </file>
@@ -3567,7 +3696,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
@@ -3611,314 +3740,314 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B3" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B5" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B6" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B8" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B9" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B10" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B11" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B12" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B13" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B14" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B15" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B16" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B17" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B18" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B19" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B20" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B21" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B22" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B23" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B24" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B25" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B26" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B27" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B28" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B29" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B30" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B31" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B32" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B33" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B34" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B35" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B36" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B37" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B38" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B39" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B40" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
   </sheetData>
@@ -3943,632 +4072,632 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>335</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B2" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C2" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B3" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C3" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D3" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B4" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C4" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D4" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B5" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C5" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D5" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B6" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C6" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D6" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C7" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D7" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B8" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C8" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D8" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B9" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C9" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D9" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B10" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C10" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D10" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B11" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C11" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D11" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B12" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C12" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D12" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B13" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C13" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D13" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B14" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C14" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D14" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B15" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C15" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D15" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B16" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C16" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D16" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B17" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C17" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="D17" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B18" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C18" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="D18" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B19" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C19" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="D19" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B20" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C20" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="D20" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B21" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C21" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="D21" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B22" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C22" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="D22" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B23" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C23" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="D23" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B24" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C24" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="D24" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B25" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C25" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="D25" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B26" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C26" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="D26" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B27" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C27" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D27" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B28" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C28" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="D28" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B29" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C29" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D29" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B30" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C30" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="D30" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B31" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C31" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="D31" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B32" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C32" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="D32" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B33" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C33" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D33" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B34" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C34" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="D34" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B35" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C35" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="D35" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B36" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C36" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D36" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B37" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C37" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D37" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B38" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C38" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="D38" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B39" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C39" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D39" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B40" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C40" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D40" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B41" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C41" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="D41" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B42" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C42" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D42" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B43" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C43" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D43" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B44" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C44" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="D44" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B45" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C45" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D45" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
   </sheetData>
@@ -4596,10 +4725,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>1</v>
@@ -4607,70 +4736,70 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="6" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C2" s="6">
         <v>25</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="6" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C3" s="6">
         <v>25</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="6" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C4" s="6">
         <v>25</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="6" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="C5" s="6">
         <v>25</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="6" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
   </sheetData>
@@ -4736,13 +4865,13 @@
     </row>
     <row r="3" spans="1:11">
       <c r="F3" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="J3" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="K3" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
   </sheetData>
@@ -4797,10 +4926,10 @@
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="F3" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -5168,7 +5297,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
@@ -5186,18 +5317,18 @@
         <v>93</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>94</v>
+        <v>519</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" t="s">
         <v>95</v>
       </c>
-      <c r="B2" t="s">
-        <v>96</v>
-      </c>
       <c r="C2" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
   </sheetData>
@@ -5210,7 +5341,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
@@ -5223,22 +5356,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -5249,7 +5382,7 @@
         <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -5260,10 +5393,10 @@
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E3" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -5274,7 +5407,7 @@
         <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -5285,7 +5418,7 @@
         <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5296,7 +5429,7 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5307,7 +5440,7 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5318,7 +5451,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -5329,7 +5462,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -5340,7 +5473,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -5351,7 +5484,7 @@
         <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -5362,7 +5495,7 @@
         <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -5373,7 +5506,7 @@
         <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -5384,7 +5517,7 @@
         <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -5395,7 +5528,7 @@
         <v>32</v>
       </c>
       <c r="D15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -5406,7 +5539,7 @@
         <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -5417,7 +5550,7 @@
         <v>34</v>
       </c>
       <c r="D17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -5428,7 +5561,7 @@
         <v>35</v>
       </c>
       <c r="D18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -5439,7 +5572,7 @@
         <v>36</v>
       </c>
       <c r="D19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -5450,7 +5583,7 @@
         <v>37</v>
       </c>
       <c r="D20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -5461,7 +5594,7 @@
         <v>38</v>
       </c>
       <c r="D21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -5472,7 +5605,7 @@
         <v>39</v>
       </c>
       <c r="D22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -5483,7 +5616,7 @@
         <v>40</v>
       </c>
       <c r="D23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -5494,7 +5627,7 @@
         <v>41</v>
       </c>
       <c r="D24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -5505,7 +5638,7 @@
         <v>42</v>
       </c>
       <c r="D25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -5516,7 +5649,7 @@
         <v>43</v>
       </c>
       <c r="D26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -5527,7 +5660,7 @@
         <v>44</v>
       </c>
       <c r="D27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -5538,7 +5671,7 @@
         <v>45</v>
       </c>
       <c r="D28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -5549,7 +5682,7 @@
         <v>46</v>
       </c>
       <c r="D29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -5560,7 +5693,7 @@
         <v>47</v>
       </c>
       <c r="D30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -5571,7 +5704,7 @@
         <v>48</v>
       </c>
       <c r="D31" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -5582,7 +5715,7 @@
         <v>49</v>
       </c>
       <c r="D32" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -5593,7 +5726,7 @@
         <v>50</v>
       </c>
       <c r="D33" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -5604,7 +5737,7 @@
         <v>51</v>
       </c>
       <c r="D34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -5615,7 +5748,7 @@
         <v>52</v>
       </c>
       <c r="D35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -5626,7 +5759,7 @@
         <v>53</v>
       </c>
       <c r="D36" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -5637,7 +5770,7 @@
         <v>54</v>
       </c>
       <c r="D37" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -5648,7 +5781,7 @@
         <v>55</v>
       </c>
       <c r="D38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -5659,7 +5792,7 @@
         <v>56</v>
       </c>
       <c r="D39" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -5670,7 +5803,7 @@
         <v>57</v>
       </c>
       <c r="D40" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -5681,7 +5814,7 @@
         <v>58</v>
       </c>
       <c r="D41" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -5692,7 +5825,7 @@
         <v>59</v>
       </c>
       <c r="D42" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -5703,7 +5836,7 @@
         <v>60</v>
       </c>
       <c r="D43" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -5714,7 +5847,7 @@
         <v>61</v>
       </c>
       <c r="D44" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -5725,7 +5858,7 @@
         <v>62</v>
       </c>
       <c r="D45" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -5736,7 +5869,7 @@
         <v>63</v>
       </c>
       <c r="D46" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -5747,7 +5880,7 @@
         <v>64</v>
       </c>
       <c r="D47" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -5758,7 +5891,7 @@
         <v>65</v>
       </c>
       <c r="D48" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -5769,7 +5902,7 @@
         <v>66</v>
       </c>
       <c r="D49" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -5780,7 +5913,7 @@
         <v>67</v>
       </c>
       <c r="D50" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -5791,7 +5924,7 @@
         <v>68</v>
       </c>
       <c r="D51" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -5802,7 +5935,7 @@
         <v>69</v>
       </c>
       <c r="D52" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -5813,7 +5946,7 @@
         <v>70</v>
       </c>
       <c r="D53" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -5824,7 +5957,7 @@
         <v>71</v>
       </c>
       <c r="D54" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -5835,7 +5968,7 @@
         <v>72</v>
       </c>
       <c r="D55" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -5846,7 +5979,7 @@
         <v>73</v>
       </c>
       <c r="D56" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -5857,7 +5990,7 @@
         <v>74</v>
       </c>
       <c r="D57" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -5868,7 +6001,7 @@
         <v>75</v>
       </c>
       <c r="D58" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -5879,7 +6012,7 @@
         <v>76</v>
       </c>
       <c r="D59" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -5890,7 +6023,7 @@
         <v>77</v>
       </c>
       <c r="D60" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -5901,7 +6034,7 @@
         <v>78</v>
       </c>
       <c r="D61" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -5912,7 +6045,7 @@
         <v>79</v>
       </c>
       <c r="D62" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -5923,7 +6056,7 @@
         <v>80</v>
       </c>
       <c r="D63" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -5934,7 +6067,7 @@
         <v>81</v>
       </c>
       <c r="D64" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -5945,7 +6078,7 @@
         <v>82</v>
       </c>
       <c r="D65" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -5956,7 +6089,7 @@
         <v>83</v>
       </c>
       <c r="D66" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -5967,7 +6100,7 @@
         <v>84</v>
       </c>
       <c r="D67" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -5978,7 +6111,7 @@
         <v>85</v>
       </c>
       <c r="D68" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -5989,7 +6122,7 @@
         <v>86</v>
       </c>
       <c r="D69" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -6000,7 +6133,7 @@
         <v>87</v>
       </c>
       <c r="D70" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -6011,7 +6144,7 @@
         <v>88</v>
       </c>
       <c r="D71" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -6022,7 +6155,7 @@
         <v>89</v>
       </c>
       <c r="D72" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -6033,7 +6166,7 @@
         <v>90</v>
       </c>
       <c r="D73" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -6044,49 +6177,49 @@
         <v>91</v>
       </c>
       <c r="D74" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B75" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D75" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F75" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
+        <v>102</v>
+      </c>
+      <c r="B76" t="s">
+        <v>102</v>
+      </c>
+      <c r="D76" t="s">
+        <v>94</v>
+      </c>
+      <c r="F76" t="s">
         <v>104</v>
-      </c>
-      <c r="B76" t="s">
-        <v>104</v>
-      </c>
-      <c r="D76" t="s">
-        <v>95</v>
-      </c>
-      <c r="F76" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B77" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D77" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F77" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -6099,7 +6232,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
@@ -6113,39 +6248,39 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>101</v>
+        <v>521</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
+        <v>493</v>
+      </c>
+      <c r="B3" t="s">
+        <v>494</v>
+      </c>
+      <c r="C3" t="s">
+        <v>495</v>
+      </c>
+      <c r="D3" t="s">
         <v>496</v>
       </c>
-      <c r="B3" t="s">
-        <v>497</v>
-      </c>
-      <c r="C3" t="s">
-        <v>498</v>
-      </c>
-      <c r="D3" t="s">
-        <v>499</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
   </sheetData>
@@ -6171,19 +6306,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -6191,13 +6326,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D2">
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -6205,13 +6340,13 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D3">
         <v>23.2</v>
       </c>
       <c r="E3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -6219,13 +6354,13 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D4">
         <v>8.8000000000000007</v>
       </c>
       <c r="E4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6233,13 +6368,13 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D5">
         <v>300</v>
       </c>
       <c r="E5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -6247,13 +6382,13 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D6">
         <v>200</v>
       </c>
       <c r="E6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -6261,13 +6396,13 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D7">
         <v>553</v>
       </c>
       <c r="E7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -6275,13 +6410,13 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D8">
         <v>200</v>
       </c>
       <c r="E8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -6289,13 +6424,13 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D9">
         <v>180</v>
       </c>
       <c r="E9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -6303,13 +6438,13 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D10">
         <v>800</v>
       </c>
       <c r="E10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -6317,13 +6452,13 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D11">
         <v>148.87700000000001</v>
       </c>
       <c r="E11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -6331,13 +6466,13 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D12">
         <v>112.5</v>
       </c>
       <c r="E12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -6345,13 +6480,13 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D13">
         <v>112.5</v>
       </c>
       <c r="E13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -6359,13 +6494,13 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D14">
         <v>400</v>
       </c>
       <c r="E14" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -6373,13 +6508,13 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D15">
         <v>490</v>
       </c>
       <c r="E15" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -6387,13 +6522,13 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D16">
         <v>390</v>
       </c>
       <c r="E16" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -6401,13 +6536,13 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D17">
         <v>100</v>
       </c>
       <c r="E17" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -6415,13 +6550,13 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -6429,13 +6564,13 @@
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D19">
         <v>200</v>
       </c>
       <c r="E19" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -6443,13 +6578,13 @@
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D20">
         <v>300</v>
       </c>
       <c r="E20" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -6457,13 +6592,13 @@
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D21">
         <v>40</v>
       </c>
       <c r="E21" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -6471,13 +6606,13 @@
         <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D22">
         <v>60</v>
       </c>
       <c r="E22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -6485,13 +6620,13 @@
         <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D23">
         <v>4</v>
       </c>
       <c r="E23" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -6499,13 +6634,13 @@
         <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D24">
         <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -6513,13 +6648,13 @@
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D25">
         <v>4</v>
       </c>
       <c r="E25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -6527,13 +6662,13 @@
         <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -6541,13 +6676,13 @@
         <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D27">
         <v>434.63099999999997</v>
       </c>
       <c r="E27" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -6555,13 +6690,13 @@
         <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D28">
         <v>50</v>
       </c>
       <c r="E28" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -6569,13 +6704,13 @@
         <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D29">
         <v>200</v>
       </c>
       <c r="E29" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -6583,13 +6718,13 @@
         <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D30">
         <v>400</v>
       </c>
       <c r="E30" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -6597,13 +6732,13 @@
         <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D31">
         <v>40</v>
       </c>
       <c r="E31" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -6611,13 +6746,13 @@
         <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D32">
         <v>8</v>
       </c>
       <c r="E32" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -6625,13 +6760,13 @@
         <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D33">
         <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -6639,13 +6774,13 @@
         <v>32</v>
       </c>
       <c r="C34" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D34">
         <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -6653,13 +6788,13 @@
         <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D35">
         <v>20</v>
       </c>
       <c r="E35" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -6667,13 +6802,13 @@
         <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D36">
         <v>125</v>
       </c>
       <c r="E36" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -6681,13 +6816,13 @@
         <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D37">
         <v>145</v>
       </c>
       <c r="E37" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -6695,13 +6830,13 @@
         <v>36</v>
       </c>
       <c r="C38" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D38">
         <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -6709,13 +6844,13 @@
         <v>37</v>
       </c>
       <c r="C39" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D39">
         <v>101</v>
       </c>
       <c r="E39" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -6723,13 +6858,13 @@
         <v>37</v>
       </c>
       <c r="C40" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D40">
         <v>210</v>
       </c>
       <c r="E40" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -6737,13 +6872,13 @@
         <v>38</v>
       </c>
       <c r="C41" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D41">
         <v>210</v>
       </c>
       <c r="E41" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -6751,13 +6886,13 @@
         <v>39</v>
       </c>
       <c r="C42" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D42">
         <v>101</v>
       </c>
       <c r="E42" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -6765,13 +6900,13 @@
         <v>40</v>
       </c>
       <c r="C43" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D43">
         <v>90</v>
       </c>
       <c r="E43" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -6779,13 +6914,13 @@
         <v>41</v>
       </c>
       <c r="C44" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D44">
         <v>25</v>
       </c>
       <c r="E44" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -6793,13 +6928,13 @@
         <v>42</v>
       </c>
       <c r="C45" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D45">
         <v>2.2200000000000002</v>
       </c>
       <c r="E45" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -6807,13 +6942,13 @@
         <v>43</v>
       </c>
       <c r="C46" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D46">
         <v>2.0299999999999998</v>
       </c>
       <c r="E46" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -6821,13 +6956,13 @@
         <v>44</v>
       </c>
       <c r="C47" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D47">
         <v>2</v>
       </c>
       <c r="E47" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -6835,13 +6970,13 @@
         <v>45</v>
       </c>
       <c r="C48" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D48">
         <v>100</v>
       </c>
       <c r="E48" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -6849,13 +6984,13 @@
         <v>45</v>
       </c>
       <c r="C49" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D49">
         <v>3.5</v>
       </c>
       <c r="E49" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -6863,13 +6998,13 @@
         <v>45</v>
       </c>
       <c r="C50" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D50">
         <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -6877,13 +7012,13 @@
         <v>45</v>
       </c>
       <c r="C51" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D51">
         <v>20</v>
       </c>
       <c r="E51" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -6891,13 +7026,13 @@
         <v>45</v>
       </c>
       <c r="C52" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D52">
         <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -6905,13 +7040,13 @@
         <v>46</v>
       </c>
       <c r="C53" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D53">
         <v>50</v>
       </c>
       <c r="E53" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -6919,13 +7054,13 @@
         <v>47</v>
       </c>
       <c r="C54" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D54">
         <v>2.0833333330000001</v>
       </c>
       <c r="E54" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -6933,16 +7068,16 @@
         <v>48</v>
       </c>
       <c r="B55" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C55" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="D55">
         <v>22</v>
       </c>
       <c r="E55" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
   </sheetData>
@@ -6955,7 +7090,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
@@ -6970,25 +7107,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>192</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -6996,19 +7133,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C2">
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E2">
         <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -7016,19 +7153,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C3">
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E3">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -7036,19 +7173,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C4">
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E4">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -7056,19 +7193,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C5">
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E5">
         <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -7076,19 +7213,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C6">
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E6">
         <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -7096,19 +7233,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C7">
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E7">
         <v>3</v>
       </c>
       <c r="G7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7116,19 +7253,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C8">
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -7136,19 +7273,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C9">
         <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E9">
         <v>3</v>
       </c>
       <c r="G9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -7156,19 +7293,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C10">
         <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E10">
         <v>6</v>
       </c>
       <c r="G10" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -7176,19 +7313,19 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C11">
         <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E11">
         <v>4</v>
       </c>
       <c r="G11" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -7196,19 +7333,19 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C12">
         <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E12">
         <v>6</v>
       </c>
       <c r="G12" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -7216,19 +7353,19 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C13">
         <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E13">
         <v>4</v>
       </c>
       <c r="G13" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -7236,19 +7373,19 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C14">
         <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -7256,22 +7393,22 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E15">
         <v>4</v>
       </c>
       <c r="F15" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G15" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -7279,19 +7416,19 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C16">
         <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E16">
         <v>6</v>
       </c>
       <c r="G16" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -7299,22 +7436,22 @@
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C17">
         <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E17">
         <v>2</v>
       </c>
       <c r="F17" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G17" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -7322,19 +7459,19 @@
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C18">
         <v>13</v>
       </c>
       <c r="D18" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E18">
         <v>6</v>
       </c>
       <c r="G18" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -7342,22 +7479,22 @@
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C19">
         <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E19">
         <v>2</v>
       </c>
       <c r="F19" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G19" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -7365,19 +7502,19 @@
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C20">
         <v>13</v>
       </c>
       <c r="D20" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E20">
         <v>5</v>
       </c>
       <c r="G20" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -7385,19 +7522,19 @@
         <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C21">
         <v>15</v>
       </c>
       <c r="D21" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E21">
         <v>2</v>
       </c>
       <c r="G21" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -7405,19 +7542,19 @@
         <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C22">
         <v>13</v>
       </c>
       <c r="D22" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E22">
         <v>5</v>
       </c>
       <c r="G22" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -7425,19 +7562,19 @@
         <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C23">
         <v>13</v>
       </c>
       <c r="D23" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E23">
         <v>2</v>
       </c>
       <c r="G23" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -7445,19 +7582,19 @@
         <v>18</v>
       </c>
       <c r="B24" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C24">
         <v>15</v>
       </c>
       <c r="D24" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="G24" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -7465,19 +7602,19 @@
         <v>19</v>
       </c>
       <c r="B25" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C25">
         <v>13</v>
       </c>
       <c r="D25" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E25">
         <v>2</v>
       </c>
       <c r="G25" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -7485,19 +7622,19 @@
         <v>20</v>
       </c>
       <c r="B26" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C26">
         <v>13</v>
       </c>
       <c r="D26" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E26">
         <v>6</v>
       </c>
       <c r="G26" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -7505,19 +7642,19 @@
         <v>20</v>
       </c>
       <c r="B27" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C27">
         <v>15</v>
       </c>
       <c r="D27" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E27">
         <v>1</v>
       </c>
       <c r="G27" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -7525,19 +7662,19 @@
         <v>21</v>
       </c>
       <c r="B28" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C28">
         <v>13</v>
       </c>
       <c r="D28" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E28">
         <v>6</v>
       </c>
       <c r="G28" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -7545,19 +7682,19 @@
         <v>22</v>
       </c>
       <c r="B29" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C29">
         <v>13</v>
       </c>
       <c r="D29" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E29">
         <v>3</v>
       </c>
       <c r="G29" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -7565,19 +7702,19 @@
         <v>23</v>
       </c>
       <c r="B30" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C30">
         <v>13</v>
       </c>
       <c r="D30" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E30">
         <v>6</v>
       </c>
       <c r="G30" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -7585,19 +7722,19 @@
         <v>23</v>
       </c>
       <c r="B31" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C31">
         <v>15</v>
       </c>
       <c r="D31" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E31">
         <v>2</v>
       </c>
       <c r="G31" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -7605,19 +7742,19 @@
         <v>24</v>
       </c>
       <c r="B32" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C32">
         <v>13</v>
       </c>
       <c r="D32" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E32">
         <v>6</v>
       </c>
       <c r="G32" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -7625,19 +7762,19 @@
         <v>25</v>
       </c>
       <c r="B33" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C33">
         <v>13</v>
       </c>
       <c r="D33" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E33">
         <v>5</v>
       </c>
       <c r="G33" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -7645,19 +7782,19 @@
         <v>25</v>
       </c>
       <c r="B34" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C34">
         <v>15</v>
       </c>
       <c r="D34" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E34">
         <v>1</v>
       </c>
       <c r="G34" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -7665,19 +7802,19 @@
         <v>26</v>
       </c>
       <c r="B35" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C35">
         <v>13</v>
       </c>
       <c r="D35" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E35">
         <v>5</v>
       </c>
       <c r="G35" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -7685,19 +7822,19 @@
         <v>27</v>
       </c>
       <c r="B36" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C36">
         <v>13</v>
       </c>
       <c r="D36" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E36">
         <v>9</v>
       </c>
       <c r="G36" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -7705,19 +7842,19 @@
         <v>27</v>
       </c>
       <c r="B37" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C37">
         <v>15</v>
       </c>
       <c r="D37" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E37">
         <v>1</v>
       </c>
       <c r="G37" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -7725,19 +7862,19 @@
         <v>28</v>
       </c>
       <c r="B38" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C38">
         <v>13</v>
       </c>
       <c r="D38" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E38">
         <v>9</v>
       </c>
       <c r="G38" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -7745,19 +7882,19 @@
         <v>29</v>
       </c>
       <c r="B39" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C39">
         <v>13</v>
       </c>
       <c r="D39" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E39">
         <v>5</v>
       </c>
       <c r="G39" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -7765,19 +7902,19 @@
         <v>29</v>
       </c>
       <c r="B40" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C40">
         <v>15</v>
       </c>
       <c r="D40" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E40">
         <v>1</v>
       </c>
       <c r="G40" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -7785,19 +7922,19 @@
         <v>30</v>
       </c>
       <c r="B41" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C41">
         <v>13</v>
       </c>
       <c r="D41" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E41">
         <v>5</v>
       </c>
       <c r="G41" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -7805,19 +7942,19 @@
         <v>31</v>
       </c>
       <c r="B42" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C42">
         <v>13</v>
       </c>
       <c r="D42" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E42">
         <v>3</v>
       </c>
       <c r="G42" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -7825,19 +7962,19 @@
         <v>31</v>
       </c>
       <c r="B43" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C43">
         <v>15</v>
       </c>
       <c r="D43" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E43">
         <v>1</v>
       </c>
       <c r="G43" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -7845,19 +7982,19 @@
         <v>32</v>
       </c>
       <c r="B44" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C44">
         <v>13</v>
       </c>
       <c r="D44" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E44">
         <v>4</v>
       </c>
       <c r="G44" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -7865,19 +8002,19 @@
         <v>32</v>
       </c>
       <c r="B45" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C45">
         <v>15</v>
       </c>
       <c r="D45" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E45">
         <v>1</v>
       </c>
       <c r="G45" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -7885,19 +8022,19 @@
         <v>33</v>
       </c>
       <c r="B46" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C46">
         <v>13</v>
       </c>
       <c r="D46" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E46">
         <v>4</v>
       </c>
       <c r="G46" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -7905,19 +8042,19 @@
         <v>34</v>
       </c>
       <c r="B47" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C47">
         <v>13</v>
       </c>
       <c r="D47" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E47">
         <v>11</v>
       </c>
       <c r="G47" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -7925,19 +8062,19 @@
         <v>35</v>
       </c>
       <c r="B48" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C48">
         <v>13</v>
       </c>
       <c r="D48" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E48">
         <v>5</v>
       </c>
       <c r="G48" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -7945,19 +8082,19 @@
         <v>35</v>
       </c>
       <c r="B49" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C49">
         <v>15</v>
       </c>
       <c r="D49" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E49">
         <v>1</v>
       </c>
       <c r="G49" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -7965,19 +8102,19 @@
         <v>36</v>
       </c>
       <c r="B50" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C50">
         <v>13</v>
       </c>
       <c r="D50" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E50">
         <v>5</v>
       </c>
       <c r="G50" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -7985,19 +8122,19 @@
         <v>37</v>
       </c>
       <c r="B51" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C51">
         <v>13</v>
       </c>
       <c r="D51" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E51">
         <v>9</v>
       </c>
       <c r="G51" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
   </sheetData>
@@ -8020,146 +8157,146 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B4" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B5" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B6" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B8" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B9" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B10" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B11" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B12" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B13" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B14" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B15" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B16" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B17" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B18" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>

--- a/DataRepo/data/tests/submission_v3/study_with_autofill_seeds.xlsx
+++ b/DataRepo/data/tests/submission_v3/study_with_autofill_seeds.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-local/TRACEBASE/tracebase/DataRepo/data/tests/submission_v3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-LOCAL/TRACEBASE/tracebase/DataRepo/data/tests/submission_v3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A24DD0-D8EC-6D47-94AF-4B5884A78902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{767E0E79-A501-C948-A182-CEA723BC98BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="31940" windowHeight="16920" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="31940" windowHeight="16920" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Samples" sheetId="3" r:id="rId3"/>
     <sheet name="Peak Annotation Files" sheetId="4" r:id="rId4"/>
     <sheet name="Peak Annotation Details" sheetId="5" r:id="rId5"/>
-    <sheet name="MS Runs" sheetId="6" r:id="rId6"/>
+    <sheet name="Sequences" sheetId="6" r:id="rId6"/>
     <sheet name="Infusates" sheetId="7" r:id="rId7"/>
     <sheet name="Tracers" sheetId="8" r:id="rId8"/>
     <sheet name="Treatments" sheetId="9" r:id="rId9"/>
@@ -3282,7 +3282,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3698,13 +3698,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3724,13 +3724,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="40" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="70" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -3738,7 +3738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>268</v>
       </c>
@@ -3746,7 +3746,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>269</v>
       </c>
@@ -3754,7 +3754,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>270</v>
       </c>
@@ -3762,7 +3762,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>271</v>
       </c>
@@ -3770,7 +3770,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>272</v>
       </c>
@@ -3778,7 +3778,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>273</v>
       </c>
@@ -3786,7 +3786,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>274</v>
       </c>
@@ -3794,7 +3794,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>275</v>
       </c>
@@ -3802,7 +3802,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>276</v>
       </c>
@@ -3810,7 +3810,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>277</v>
       </c>
@@ -3818,7 +3818,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>278</v>
       </c>
@@ -3826,7 +3826,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>279</v>
       </c>
@@ -3834,7 +3834,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>280</v>
       </c>
@@ -3842,7 +3842,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>281</v>
       </c>
@@ -3850,7 +3850,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>282</v>
       </c>
@@ -3858,7 +3858,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>283</v>
       </c>
@@ -3866,7 +3866,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>284</v>
       </c>
@@ -3874,7 +3874,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>285</v>
       </c>
@@ -3882,7 +3882,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>286</v>
       </c>
@@ -3890,7 +3890,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>287</v>
       </c>
@@ -3898,7 +3898,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>288</v>
       </c>
@@ -3906,7 +3906,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>289</v>
       </c>
@@ -3914,7 +3914,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>290</v>
       </c>
@@ -3922,7 +3922,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>291</v>
       </c>
@@ -3930,7 +3930,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>292</v>
       </c>
@@ -3938,7 +3938,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>293</v>
       </c>
@@ -3946,7 +3946,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>294</v>
       </c>
@@ -3954,7 +3954,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>295</v>
       </c>
@@ -3962,7 +3962,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>296</v>
       </c>
@@ -3970,7 +3970,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>297</v>
       </c>
@@ -3978,7 +3978,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>298</v>
       </c>
@@ -3986,7 +3986,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>299</v>
       </c>
@@ -3994,7 +3994,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>300</v>
       </c>
@@ -4002,7 +4002,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>301</v>
       </c>
@@ -4010,7 +4010,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>302</v>
       </c>
@@ -4018,7 +4018,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>303</v>
       </c>
@@ -4026,7 +4026,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>304</v>
       </c>
@@ -4034,7 +4034,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>305</v>
       </c>
@@ -4042,7 +4042,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>306</v>
       </c>
@@ -4062,7 +4062,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
@@ -4070,7 +4070,7 @@
     <col min="4" max="4" width="139.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>332</v>
       </c>
@@ -4084,7 +4084,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>336</v>
       </c>
@@ -4098,7 +4098,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>337</v>
       </c>
@@ -4112,7 +4112,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>338</v>
       </c>
@@ -4126,7 +4126,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>339</v>
       </c>
@@ -4140,7 +4140,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>190</v>
       </c>
@@ -4154,7 +4154,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>340</v>
       </c>
@@ -4168,7 +4168,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>191</v>
       </c>
@@ -4182,7 +4182,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>192</v>
       </c>
@@ -4196,7 +4196,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>193</v>
       </c>
@@ -4210,7 +4210,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>341</v>
       </c>
@@ -4224,7 +4224,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>194</v>
       </c>
@@ -4238,7 +4238,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>195</v>
       </c>
@@ -4252,7 +4252,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>196</v>
       </c>
@@ -4266,7 +4266,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>342</v>
       </c>
@@ -4280,7 +4280,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>197</v>
       </c>
@@ -4294,7 +4294,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>343</v>
       </c>
@@ -4308,7 +4308,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>198</v>
       </c>
@@ -4322,7 +4322,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>199</v>
       </c>
@@ -4336,7 +4336,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>344</v>
       </c>
@@ -4350,7 +4350,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>345</v>
       </c>
@@ -4364,7 +4364,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>346</v>
       </c>
@@ -4378,7 +4378,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>347</v>
       </c>
@@ -4392,7 +4392,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>200</v>
       </c>
@@ -4406,7 +4406,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>348</v>
       </c>
@@ -4420,7 +4420,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>201</v>
       </c>
@@ -4434,7 +4434,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>202</v>
       </c>
@@ -4448,7 +4448,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>349</v>
       </c>
@@ -4462,7 +4462,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>350</v>
       </c>
@@ -4476,7 +4476,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>203</v>
       </c>
@@ -4490,7 +4490,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>351</v>
       </c>
@@ -4504,7 +4504,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>204</v>
       </c>
@@ -4518,7 +4518,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>205</v>
       </c>
@@ -4532,7 +4532,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>352</v>
       </c>
@@ -4546,7 +4546,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>206</v>
       </c>
@@ -4560,7 +4560,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>207</v>
       </c>
@@ -4574,7 +4574,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>208</v>
       </c>
@@ -4588,7 +4588,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>353</v>
       </c>
@@ -4602,7 +4602,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>209</v>
       </c>
@@ -4616,7 +4616,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>354</v>
       </c>
@@ -4630,7 +4630,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>210</v>
       </c>
@@ -4644,7 +4644,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>211</v>
       </c>
@@ -4658,7 +4658,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>355</v>
       </c>
@@ -4672,7 +4672,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>356</v>
       </c>
@@ -4686,7 +4686,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>212</v>
       </c>
@@ -4712,7 +4712,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="32.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
@@ -4720,7 +4720,7 @@
     <col min="4" max="4" width="228.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -4734,7 +4734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>505</v>
       </c>
@@ -4748,7 +4748,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>508</v>
       </c>
@@ -4762,7 +4762,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>511</v>
       </c>
@@ -4776,7 +4776,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>514</v>
       </c>
@@ -4790,7 +4790,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>517</v>
       </c>
@@ -4813,7 +4813,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.5" bestFit="1" customWidth="1"/>
@@ -4828,7 +4828,7 @@
     <col min="11" max="11" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -4863,7 +4863,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="F3" t="s">
         <v>503</v>
       </c>
@@ -4886,7 +4886,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
@@ -4896,7 +4896,7 @@
     <col min="6" max="6" width="7.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -4916,12 +4916,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -4932,357 +4932,357 @@
         <v>490</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>91</v>
       </c>
@@ -5301,7 +5301,7 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
@@ -5309,7 +5309,7 @@
     <col min="4" max="4" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>92</v>
       </c>
@@ -5320,7 +5320,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>94</v>
       </c>
@@ -5345,7 +5345,7 @@
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="30" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
@@ -5354,7 +5354,7 @@
     <col min="6" max="6" width="4.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>96</v>
       </c>
@@ -5374,7 +5374,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -5385,7 +5385,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -5399,7 +5399,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -5410,7 +5410,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -5421,7 +5421,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -5432,7 +5432,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -5443,7 +5443,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -5454,7 +5454,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -5465,7 +5465,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -5476,7 +5476,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -5487,7 +5487,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -5498,7 +5498,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -5509,7 +5509,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -5520,7 +5520,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -5531,7 +5531,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -5542,7 +5542,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -5553,7 +5553,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -5564,7 +5564,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -5575,7 +5575,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -5586,7 +5586,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -5597,7 +5597,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -5608,7 +5608,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -5619,7 +5619,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>41</v>
       </c>
@@ -5630,7 +5630,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>42</v>
       </c>
@@ -5641,7 +5641,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>43</v>
       </c>
@@ -5652,7 +5652,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>44</v>
       </c>
@@ -5663,7 +5663,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>45</v>
       </c>
@@ -5674,7 +5674,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>46</v>
       </c>
@@ -5685,7 +5685,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>47</v>
       </c>
@@ -5696,7 +5696,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>48</v>
       </c>
@@ -5707,7 +5707,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>49</v>
       </c>
@@ -5718,7 +5718,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>50</v>
       </c>
@@ -5729,7 +5729,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>51</v>
       </c>
@@ -5740,7 +5740,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>52</v>
       </c>
@@ -5751,7 +5751,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>53</v>
       </c>
@@ -5762,7 +5762,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>54</v>
       </c>
@@ -5773,7 +5773,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>55</v>
       </c>
@@ -5784,7 +5784,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>56</v>
       </c>
@@ -5795,7 +5795,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>57</v>
       </c>
@@ -5806,7 +5806,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>58</v>
       </c>
@@ -5817,7 +5817,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>59</v>
       </c>
@@ -5828,7 +5828,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>60</v>
       </c>
@@ -5839,7 +5839,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>61</v>
       </c>
@@ -5850,7 +5850,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>62</v>
       </c>
@@ -5861,7 +5861,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>63</v>
       </c>
@@ -5872,7 +5872,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>64</v>
       </c>
@@ -5883,7 +5883,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>65</v>
       </c>
@@ -5894,7 +5894,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>66</v>
       </c>
@@ -5905,7 +5905,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>67</v>
       </c>
@@ -5916,7 +5916,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>68</v>
       </c>
@@ -5927,7 +5927,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>69</v>
       </c>
@@ -5938,7 +5938,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>70</v>
       </c>
@@ -5949,7 +5949,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>71</v>
       </c>
@@ -5960,7 +5960,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>72</v>
       </c>
@@ -5971,7 +5971,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>73</v>
       </c>
@@ -5982,7 +5982,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>74</v>
       </c>
@@ -5993,7 +5993,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>75</v>
       </c>
@@ -6004,7 +6004,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>76</v>
       </c>
@@ -6015,7 +6015,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>77</v>
       </c>
@@ -6026,7 +6026,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>78</v>
       </c>
@@ -6037,7 +6037,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>79</v>
       </c>
@@ -6048,7 +6048,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>80</v>
       </c>
@@ -6059,7 +6059,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>81</v>
       </c>
@@ -6070,7 +6070,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>82</v>
       </c>
@@ -6081,7 +6081,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>83</v>
       </c>
@@ -6092,7 +6092,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>84</v>
       </c>
@@ -6103,7 +6103,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>85</v>
       </c>
@@ -6114,7 +6114,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>86</v>
       </c>
@@ -6125,7 +6125,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>87</v>
       </c>
@@ -6136,7 +6136,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>88</v>
       </c>
@@ -6147,7 +6147,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>89</v>
       </c>
@@ -6158,7 +6158,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>90</v>
       </c>
@@ -6169,7 +6169,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>91</v>
       </c>
@@ -6180,7 +6180,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>101</v>
       </c>
@@ -6194,7 +6194,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>102</v>
       </c>
@@ -6208,7 +6208,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>103</v>
       </c>
@@ -6232,11 +6232,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="34.6640625" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
@@ -6246,7 +6246,7 @@
     <col min="6" max="6" width="6.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>521</v>
       </c>
@@ -6266,7 +6266,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>493</v>
       </c>
@@ -6295,7 +6295,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
@@ -6304,7 +6304,7 @@
     <col min="5" max="5" width="95.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>110</v>
       </c>
@@ -6321,7 +6321,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6335,7 +6335,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6349,7 +6349,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6363,7 +6363,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6377,7 +6377,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6391,7 +6391,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -6405,7 +6405,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -6419,7 +6419,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -6433,7 +6433,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -6447,7 +6447,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -6461,7 +6461,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -6475,7 +6475,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -6489,7 +6489,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -6503,7 +6503,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -6517,7 +6517,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -6531,7 +6531,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -6545,7 +6545,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -6559,7 +6559,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -6573,7 +6573,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -6587,7 +6587,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
@@ -6601,7 +6601,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
@@ -6615,7 +6615,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
@@ -6629,7 +6629,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
@@ -6643,7 +6643,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
@@ -6657,7 +6657,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>24</v>
       </c>
@@ -6671,7 +6671,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>25</v>
       </c>
@@ -6685,7 +6685,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>26</v>
       </c>
@@ -6699,7 +6699,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>27</v>
       </c>
@@ -6713,7 +6713,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>28</v>
       </c>
@@ -6727,7 +6727,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>29</v>
       </c>
@@ -6741,7 +6741,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>30</v>
       </c>
@@ -6755,7 +6755,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>31</v>
       </c>
@@ -6769,7 +6769,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>32</v>
       </c>
@@ -6783,7 +6783,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>33</v>
       </c>
@@ -6797,7 +6797,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>34</v>
       </c>
@@ -6811,7 +6811,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>35</v>
       </c>
@@ -6825,7 +6825,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>36</v>
       </c>
@@ -6839,7 +6839,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>37</v>
       </c>
@@ -6853,7 +6853,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>37</v>
       </c>
@@ -6867,7 +6867,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>38</v>
       </c>
@@ -6881,7 +6881,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>39</v>
       </c>
@@ -6895,7 +6895,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>40</v>
       </c>
@@ -6909,7 +6909,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>41</v>
       </c>
@@ -6923,7 +6923,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>42</v>
       </c>
@@ -6937,7 +6937,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>43</v>
       </c>
@@ -6951,7 +6951,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>44</v>
       </c>
@@ -6965,7 +6965,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>45</v>
       </c>
@@ -6979,7 +6979,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>45</v>
       </c>
@@ -6993,7 +6993,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>45</v>
       </c>
@@ -7007,7 +7007,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>45</v>
       </c>
@@ -7021,7 +7021,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>45</v>
       </c>
@@ -7035,7 +7035,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>46</v>
       </c>
@@ -7049,7 +7049,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>47</v>
       </c>
@@ -7063,7 +7063,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>48</v>
       </c>
@@ -7090,11 +7090,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
@@ -7105,7 +7105,7 @@
     <col min="7" max="7" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>185</v>
       </c>
@@ -7128,7 +7128,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7148,7 +7148,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -7168,7 +7168,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -7188,7 +7188,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -7208,7 +7208,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -7228,7 +7228,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -7248,7 +7248,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -7268,7 +7268,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -7288,7 +7288,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -7308,7 +7308,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>8</v>
       </c>
@@ -7328,7 +7328,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>9</v>
       </c>
@@ -7348,7 +7348,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10</v>
       </c>
@@ -7368,7 +7368,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>10</v>
       </c>
@@ -7388,7 +7388,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>11</v>
       </c>
@@ -7411,7 +7411,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>12</v>
       </c>
@@ -7431,7 +7431,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>13</v>
       </c>
@@ -7454,7 +7454,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>14</v>
       </c>
@@ -7474,7 +7474,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>15</v>
       </c>
@@ -7497,7 +7497,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>16</v>
       </c>
@@ -7517,7 +7517,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>16</v>
       </c>
@@ -7537,7 +7537,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>17</v>
       </c>
@@ -7557,7 +7557,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>18</v>
       </c>
@@ -7577,7 +7577,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>18</v>
       </c>
@@ -7597,7 +7597,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>19</v>
       </c>
@@ -7617,7 +7617,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>20</v>
       </c>
@@ -7637,7 +7637,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>20</v>
       </c>
@@ -7657,7 +7657,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>21</v>
       </c>
@@ -7677,7 +7677,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>22</v>
       </c>
@@ -7697,7 +7697,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>23</v>
       </c>
@@ -7717,7 +7717,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>23</v>
       </c>
@@ -7737,7 +7737,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>24</v>
       </c>
@@ -7757,7 +7757,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>25</v>
       </c>
@@ -7777,7 +7777,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>25</v>
       </c>
@@ -7797,7 +7797,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>26</v>
       </c>
@@ -7817,7 +7817,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>27</v>
       </c>
@@ -7837,7 +7837,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>27</v>
       </c>
@@ -7857,7 +7857,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>28</v>
       </c>
@@ -7877,7 +7877,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>29</v>
       </c>
@@ -7897,7 +7897,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>29</v>
       </c>
@@ -7917,7 +7917,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>30</v>
       </c>
@@ -7937,7 +7937,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>31</v>
       </c>
@@ -7957,7 +7957,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>31</v>
       </c>
@@ -7977,7 +7977,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>32</v>
       </c>
@@ -7997,7 +7997,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>32</v>
       </c>
@@ -8017,7 +8017,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>33</v>
       </c>
@@ -8037,7 +8037,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>34</v>
       </c>
@@ -8057,7 +8057,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>35</v>
       </c>
@@ -8077,7 +8077,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>35</v>
       </c>
@@ -8097,7 +8097,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>36</v>
       </c>
@@ -8117,7 +8117,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>37</v>
       </c>
@@ -8149,13 +8149,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="47.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="218.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>232</v>
       </c>
@@ -8163,7 +8163,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>234</v>
       </c>
@@ -8171,7 +8171,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>235</v>
       </c>
@@ -8179,7 +8179,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>236</v>
       </c>
@@ -8187,7 +8187,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>237</v>
       </c>
@@ -8195,7 +8195,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>238</v>
       </c>
@@ -8203,7 +8203,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>239</v>
       </c>
@@ -8211,7 +8211,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>240</v>
       </c>
@@ -8219,7 +8219,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>241</v>
       </c>
@@ -8227,7 +8227,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>242</v>
       </c>
@@ -8235,7 +8235,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>243</v>
       </c>
@@ -8243,7 +8243,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>244</v>
       </c>
@@ -8251,7 +8251,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>245</v>
       </c>
@@ -8259,7 +8259,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>246</v>
       </c>
@@ -8267,7 +8267,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>247</v>
       </c>
@@ -8275,7 +8275,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>248</v>
       </c>
@@ -8283,7 +8283,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>249</v>
       </c>
@@ -8291,7 +8291,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>250</v>
       </c>

--- a/DataRepo/data/tests/submission_v3/study_with_autofill_seeds.xlsx
+++ b/DataRepo/data/tests/submission_v3/study_with_autofill_seeds.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-LOCAL/TRACEBASE/tracebase/DataRepo/data/tests/submission_v3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{767E0E79-A501-C948-A182-CEA723BC98BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34EB4705-6C92-9D4B-8185-10002ACDDFD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="31940" windowHeight="16920" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="31940" windowHeight="16920" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study" sheetId="1" r:id="rId1"/>
@@ -3269,13 +3269,13 @@
     <t>Liquid chromatography methodology was not provided or is unavailable.</t>
   </si>
   <si>
-    <t>Default MS Run</t>
-  </si>
-  <si>
     <t>MS Run</t>
   </si>
   <si>
     <t>MS Run Name</t>
+  </si>
+  <si>
+    <t>Default Sequence</t>
   </si>
 </sst>
 </file>
@@ -5297,7 +5297,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -5317,7 +5317,7 @@
         <v>93</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -5368,7 +5368,7 @@
         <v>99</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>100</v>
@@ -6232,7 +6232,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -6248,7 +6248,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>105</v>

--- a/DataRepo/data/tests/submission_v3/study_with_autofill_seeds.xlsx
+++ b/DataRepo/data/tests/submission_v3/study_with_autofill_seeds.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-LOCAL/TRACEBASE/tracebase/DataRepo/data/tests/submission_v3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34EB4705-6C92-9D4B-8185-10002ACDDFD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FACB50F-CD40-D74D-A314-73CF9C402D97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="31940" windowHeight="16920" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="31940" windowHeight="16920" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study" sheetId="1" r:id="rId1"/>
@@ -3272,10 +3272,10 @@
     <t>MS Run</t>
   </si>
   <si>
-    <t>MS Run Name</t>
-  </si>
-  <si>
     <t>Default Sequence</t>
+  </si>
+  <si>
+    <t>Sequence Name</t>
   </si>
 </sst>
 </file>
@@ -5297,7 +5297,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -5317,7 +5317,7 @@
         <v>93</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -6232,7 +6232,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -6248,7 +6248,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>105</v>

--- a/DataRepo/data/tests/submission_v3/study_with_autofill_seeds.xlsx
+++ b/DataRepo/data/tests/submission_v3/study_with_autofill_seeds.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-LOCAL/TRACEBASE/tracebase/DataRepo/data/tests/submission_v3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FACB50F-CD40-D74D-A314-73CF9C402D97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE36E4E6-CE0C-D747-9E2C-1FD76E0B14DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="31940" windowHeight="16920" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="31940" windowHeight="16920" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study" sheetId="1" r:id="rId1"/>
@@ -3269,13 +3269,13 @@
     <t>Liquid chromatography methodology was not provided or is unavailable.</t>
   </si>
   <si>
-    <t>MS Run</t>
-  </si>
-  <si>
     <t>Default Sequence</t>
   </si>
   <si>
     <t>Sequence Name</t>
+  </si>
+  <si>
+    <t>Sequence</t>
   </si>
 </sst>
 </file>
@@ -5317,7 +5317,7 @@
         <v>93</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -5341,7 +5341,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -5368,7 +5368,7 @@
         <v>99</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>100</v>
@@ -6232,7 +6232,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -6248,7 +6248,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>105</v>
